--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\OneDrive\Desenvolvedor\Git\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Comando do Git " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -216,13 +211,37 @@
   </si>
   <si>
     <t>Verifica todas as atualizações feitas no repositório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls </t>
+  </si>
+  <si>
+    <t>lista os arquivos no repositorio</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>lista as tags dadas as versões. Util para quando cria-se versões finais novas</t>
+  </si>
+  <si>
+    <t>git checkout nomeDaTag</t>
+  </si>
+  <si>
+    <t>O git volta na versão respectiva a tag colocada</t>
+  </si>
+  <si>
+    <t>git diff nomeDaTag nomeDaOutraTag</t>
+  </si>
+  <si>
+    <t>Aqui é possíve comparar as diferenças entre as tags colocadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +265,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D464D"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,11 +306,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -304,18 +344,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -330,12 +358,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:C29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C34"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="4"/>
-    <tableColumn id="2" name="Ação" dataDxfId="3"/>
-    <tableColumn id="3" name="OBS" dataDxfId="2"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
+    <tableColumn id="2" name="Ação" dataDxfId="1"/>
+    <tableColumn id="3" name="OBS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +898,41 @@
         <v>63</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -81,9 +86,6 @@
     <t xml:space="preserve"> Adiciona o arquivo para fazer o controle das alterações &amp; permite comiitar nova alterações</t>
   </si>
   <si>
-    <t xml:space="preserve">git add nomeDoArquivo.formato </t>
-  </si>
-  <si>
     <t>OBS</t>
   </si>
   <si>
@@ -99,9 +101,6 @@
     <t>Diz ao Git onde está o diretório ou a pasta que virará um diretório</t>
   </si>
   <si>
-    <t>git commit -m "mensagemReferencia"</t>
-  </si>
-  <si>
     <t>git log</t>
   </si>
   <si>
@@ -235,13 +234,175 @@
   </si>
   <si>
     <t>Aqui é possíve comparar as diferenças entre as tags colocadas</t>
+  </si>
+  <si>
+    <t>git mergetool --too-help</t>
+  </si>
+  <si>
+    <t>Lista de programas para verificar merges gráficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git mergetool --t nomeDoPrograma </t>
+  </si>
+  <si>
+    <t>utiliza o programa baixado para fazer a analise gráfica</t>
+  </si>
+  <si>
+    <t>crtl + L</t>
+  </si>
+  <si>
+    <t>Limpa o terminal</t>
+  </si>
+  <si>
+    <t>git merge nomeDaBranchParaPegarAlteraçoes</t>
+  </si>
+  <si>
+    <t>pega os novos commits da branch escrita no comando e da um merge para a branch que se está trabalhando</t>
+  </si>
+  <si>
+    <t>Justificativa: Boa pratica, deixar a branch master como referencia no repositório remoto. Já os usuários do projeto, devem criar suas branchs remotas e trabalharem nelas.</t>
+  </si>
+  <si>
+    <t>Primeiro</t>
+  </si>
+  <si>
+    <t>Sincronizando de branchs diferentes para master (siga os passos a seguir, considerando que já haja uma branch local)</t>
+  </si>
+  <si>
+    <t>Atualizar a branch master para ver se há atualizações</t>
+  </si>
+  <si>
+    <t>comando:</t>
+  </si>
+  <si>
+    <t>Segundo:</t>
+  </si>
+  <si>
+    <t>Caso haja commit novos, atualizar a branch local com o comando rebase usando a branch master como base</t>
+  </si>
+  <si>
+    <t>Terceiro</t>
+  </si>
+  <si>
+    <t>git merge nomeDaBranchLocal</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>git checkout nomeDabranhcLocal (para acessar a branch que usará a branch master como base &gt;  git rebase master</t>
+  </si>
+  <si>
+    <t>git rebase nomeDaBranchQueSeraUsadaComoBase</t>
+  </si>
+  <si>
+    <t>Útil para usar com multiusuarios. E boa prática. Veja o passo a passo a baixo</t>
+  </si>
+  <si>
+    <t>git rebase --skip</t>
+  </si>
+  <si>
+    <t>Ignora alterações feitas por outro usuário, quando acontece um conflito</t>
+  </si>
+  <si>
+    <t>git rebase --continue</t>
+  </si>
+  <si>
+    <t>Após dá um conflito e o usuário fazer as alterações, é só da um --continue para continuar o processo do rebase</t>
+  </si>
+  <si>
+    <t>Depois de fazer os devidos commits na branch local...Devemos voltar para branch master usando checkout, pois ela receberá os commits da branch local</t>
+  </si>
+  <si>
+    <t>git log -p</t>
+  </si>
+  <si>
+    <t>devolve um relatório dos commit + as diferenças entre eles</t>
+  </si>
+  <si>
+    <t>gitk</t>
+  </si>
+  <si>
+    <t>abre uma interface gráfic a das diferenças entre os commits</t>
+  </si>
+  <si>
+    <t>git log --prety:oneline</t>
+  </si>
+  <si>
+    <t>devolve a chave de cada commit e seu comentário</t>
+  </si>
+  <si>
+    <t>git reset HEAD nomeDoArquivo</t>
+  </si>
+  <si>
+    <t>remove um arquivo que foi colocado involuntariamente da stagearea</t>
+  </si>
+  <si>
+    <t>git add nomeDoArquivo.formato | git add . (para adicionar todos os arquivos do repositório)</t>
+  </si>
+  <si>
+    <t>git checkout --nomeDoArquivo</t>
+  </si>
+  <si>
+    <t>Descarta as alterações que foram feias no seu diretorio e que ainda não foram commitadas. Restaurando o arquivp para o ultimo commit</t>
+  </si>
+  <si>
+    <t>git rm nomeDoArquivo</t>
+  </si>
+  <si>
+    <t>remove um arquivo que está sendo monitorado</t>
+  </si>
+  <si>
+    <t>git pull NomeDoDiretorioRemoto Branch</t>
+  </si>
+  <si>
+    <t>Com todos os commits atualizados na branch master, resta da um push para atualizar o repositório remoto</t>
+  </si>
+  <si>
+    <t>git tag -a nomeDaTag -m "comentário"</t>
+  </si>
+  <si>
+    <t>cria uma tag ao commit atual com comentário</t>
+  </si>
+  <si>
+    <t>git tag -a nomeDaTag -m CHAVE "comentário"</t>
+  </si>
+  <si>
+    <t>cria uma tag ao commit referente a chave com comentário</t>
+  </si>
+  <si>
+    <t>git show nomeDaTag</t>
+  </si>
+  <si>
+    <t>fornece todas as informações da tag</t>
+  </si>
+  <si>
+    <t>git tag -d nomeDaTag</t>
+  </si>
+  <si>
+    <t>deleta a tag</t>
+  </si>
+  <si>
+    <t>git commit -a -m "mensagemReferencia"</t>
+  </si>
+  <si>
+    <t>git branch -d nomeDaBranch</t>
+  </si>
+  <si>
+    <t>excluí a branch</t>
+  </si>
+  <si>
+    <t>git remote rm nomeDoRepositorioRemote</t>
+  </si>
+  <si>
+    <t>exclui o repositorio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,16 +432,30 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -288,11 +463,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +497,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C52" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C52"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
     <tableColumn id="2" name="Ação" dataDxfId="1"/>
@@ -624,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,21 +837,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -654,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="23.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -673,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="23.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,23 +894,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="23.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="23.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,18 +929,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="23.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -743,197 +948,426 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="23.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="23.25" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="23" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="30" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="34" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="36" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="37" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="41" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="42" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+    <row r="44" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1"/>
+    <row r="54" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B56"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
@@ -401,8 +396,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,11 +834,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="133.140625" style="1" customWidth="1"/>
@@ -851,7 +847,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -862,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1">
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -870,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1">
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -878,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25" customHeight="1">
+    <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -886,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23.25" customHeight="1">
+    <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25" customHeight="1">
+    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -902,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23.25" customHeight="1">
+    <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23.25" customHeight="1">
+    <row r="8" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23.25" customHeight="1">
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="23.25" customHeight="1">
+    <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -940,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23.25" customHeight="1">
+    <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="23.25" customHeight="1">
+    <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -956,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="23.25" customHeight="1">
+    <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -964,7 +960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="23.25" customHeight="1">
+    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -972,7 +968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="23.25" customHeight="1">
+    <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -980,7 +976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="23.25" customHeight="1">
+    <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>98</v>
       </c>
@@ -988,7 +984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="23.25" customHeight="1">
+    <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -999,7 +995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="23.25" customHeight="1">
+    <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1004,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="23.25" customHeight="1">
+    <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="23.25" customHeight="1">
+    <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="23.25" customHeight="1">
+    <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="23.25" customHeight="1">
+    <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="23.25" customHeight="1">
+    <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="23.25" customHeight="1">
+    <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1056,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="23.25" customHeight="1">
+    <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="23.25" customHeight="1">
+    <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="23.25" customHeight="1">
+    <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="23.25" customHeight="1">
+    <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="23.25" customHeight="1">
+    <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="23.25" customHeight="1">
+    <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="23.25" customHeight="1">
+    <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1119,7 +1115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="23.25" customHeight="1">
+    <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -1127,7 +1123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="23.25" customHeight="1">
+    <row r="33" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1135,7 +1131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="23.25" customHeight="1">
+    <row r="34" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="23.25" customHeight="1">
+    <row r="35" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1151,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="23.25" customHeight="1">
+    <row r="36" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="23.25" customHeight="1">
+    <row r="37" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -1167,7 +1163,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="23.25" customHeight="1">
+    <row r="38" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="23.25" customHeight="1">
+    <row r="39" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="23.25" customHeight="1">
+    <row r="40" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="23.25" customHeight="1">
+    <row r="41" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="23.25" customHeight="1">
+    <row r="42" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -1207,7 +1203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="23.25" customHeight="1">
+    <row r="43" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>70</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23.25" customHeight="1">
+    <row r="44" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
@@ -1223,7 +1219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="23.25" customHeight="1">
+    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -1231,7 +1227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="23.25" customHeight="1">
+    <row r="46" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="23.25" customHeight="1">
+    <row r="47" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="23.25" customHeight="1">
+    <row r="48" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="23.25" customHeight="1">
+    <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1263,7 +1259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="23.25" customHeight="1">
+    <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -1271,7 +1267,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1">
+    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="23.25" customHeight="1">
+    <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
@@ -1287,24 +1283,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1"/>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1">
+    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1">
+    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1">
+    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:2" ht="23.25" customHeight="1">
+    <row r="57" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>79</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="23.25" customHeight="1">
+    <row r="58" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>82</v>
       </c>
@@ -1320,7 +1316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="23.25" customHeight="1">
+    <row r="59" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>83</v>
       </c>
@@ -1328,7 +1324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="23.25" customHeight="1">
+    <row r="60" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>82</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="23.25" customHeight="1">
+    <row r="61" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>85</v>
       </c>
@@ -1344,7 +1340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="23.25" customHeight="1">
+    <row r="62" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="23.25" customHeight="1">
+    <row r="63" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>87</v>
       </c>
@@ -1360,7 +1356,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
   </sheetData>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>exclui o repositorio</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>aparece as alterações recentes. Para sair, pressione esc e depois :wq e dê um enter</t>
   </si>
 </sst>
 </file>
@@ -558,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C52" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
     <tableColumn id="2" name="Ação" dataDxfId="1"/>
@@ -824,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,423 +952,431 @@
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
       <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -24,9 +24,6 @@
     <t>Comando do Git</t>
   </si>
   <si>
-    <t>Ação</t>
-  </si>
-  <si>
     <t>mkdir + nomaDaPasta</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>aparece as alterações recentes. Para sair, pressione esc e depois :wq e dê um enter</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
-    <tableColumn id="2" name="Ação" dataDxfId="1"/>
+    <tableColumn id="2" name="Colunas1" dataDxfId="1"/>
     <tableColumn id="3" name="OBS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,7 +842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,455 +858,455 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" s="10"/>
     </row>
@@ -1316,58 +1316,58 @@
     </row>
     <row r="58" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -396,7 +396,7 @@
     <t>aparece as alterações recentes. Para sair, pressione esc e depois :wq e dê um enter</t>
   </si>
   <si>
-    <t>Colunas1</t>
+    <t>Ação</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
-    <tableColumn id="2" name="Colunas1" dataDxfId="1"/>
+    <tableColumn id="2" name="Ação" dataDxfId="1"/>
     <tableColumn id="3" name="OBS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,7 +842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,9 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,10 +1074,10 @@
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1085,236 +1085,263 @@
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>78</v>
       </c>
@@ -1322,7 +1349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>81</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>82</v>
       </c>
@@ -1338,7 +1365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>81</v>
       </c>
@@ -1346,7 +1373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>84</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>81</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>86</v>
       </c>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Ação</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/book/en/v2/Git-Branching-Rebasing</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +461,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -479,11 +491,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,9 +520,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +534,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,6 +562,26 @@
   <dxfs count="5">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -567,9 +627,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
-    <tableColumn id="2" name="Ação" dataDxfId="1"/>
-    <tableColumn id="3" name="OBS" dataDxfId="0"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="0"/>
+    <tableColumn id="2" name="Ação" dataDxfId="2"/>
+    <tableColumn id="3" name="OBS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -830,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,9 +900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +914,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -865,7 +925,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -873,7 +933,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -881,7 +941,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -889,7 +949,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -897,7 +957,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -905,7 +965,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -913,7 +973,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -921,7 +981,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -932,7 +992,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -943,7 +1003,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -951,7 +1011,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -959,7 +1019,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -967,7 +1027,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -975,7 +1035,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -983,7 +1043,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -991,7 +1051,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -999,7 +1059,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1010,7 +1070,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1019,7 +1079,7 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1027,7 +1087,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1035,7 +1095,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1043,7 +1103,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1051,7 +1111,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1062,7 +1122,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1071,258 +1131,258 @@
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,63 +1402,68 @@
       <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -504,24 +504,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,67 +605,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -609,6 +672,120 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,10 +801,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="0"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="3"/>
     <tableColumn id="2" name="Ação" dataDxfId="2"/>
     <tableColumn id="3" name="OBS" dataDxfId="1"/>
   </tableColumns>
@@ -890,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -900,9 +1077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,475 +1091,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,66 +1597,66 @@
       <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="8" t="s">
         <v>127</v>
       </c>
     </row>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\OneDrive\Desenvolvedor\Git\TesteGit\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
@@ -408,8 +413,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,37 +622,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,6 +660,104 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -689,104 +792,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -801,14 +806,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C53"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="3"/>
-    <tableColumn id="2" name="Ação" dataDxfId="2"/>
-    <tableColumn id="3" name="OBS" dataDxfId="1"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
+    <tableColumn id="2" name="Ação" dataDxfId="1"/>
+    <tableColumn id="3" name="OBS" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1067,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,12 +1082,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="133.140625" style="1" customWidth="1"/>
@@ -1090,513 +1095,513 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="23.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="23.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="23.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="23.25" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="23.25" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="23.25" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="23.25" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="23.25" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:3" ht="23.25" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="23.25" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="23.25" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="23.25" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="23.25" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A53" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" spans="1:3" ht="23.25" customHeight="1"/>
+    <row r="55" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A55" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A56" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="23.25" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>81</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="23.25" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="23.25" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="23.25" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="23.25" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="23.25" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>86</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
         <v>126</v>
       </c>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -408,13 +408,16 @@
   </si>
   <si>
     <t>https://git-scm.com/book/en/v2/Git-Branching-Rebasing</t>
+  </si>
+  <si>
+    <t>Repositório remoto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +455,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -596,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,15 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +655,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,104 +674,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -769,13 +685,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -784,12 +700,104 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -806,12 +814,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C54"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
-    <tableColumn id="2" name="Ação" dataDxfId="1"/>
-    <tableColumn id="3" name="OBS" dataDxfId="0"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="3"/>
+    <tableColumn id="2" name="Ação" dataDxfId="2"/>
+    <tableColumn id="3" name="OBS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1080,11 +1088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,13 +1104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1113,7 +1121,7 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -1122,7 +1130,7 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -1131,7 +1139,7 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -1140,535 +1148,546 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="23.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="23.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="23.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="23.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="23.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="23.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="23.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="23.25" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="23.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
+      <c r="A29" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="12"/>
+      <c r="A30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="23.25" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="A32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="A33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="23.25" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="23.25" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" ht="23.25" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" ht="23.25" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" ht="23.25" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="23.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="23.25" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" ht="23.25" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="12"/>
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="12"/>
+      <c r="A45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="23.25" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="23.25" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="23.25" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="23.25" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="23.25" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A53" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="55" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A55" s="18" t="s">
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" ht="23.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A56" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A56" s="19" t="s">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A57" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="19"/>
-    </row>
-    <row r="57" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59" spans="1:3" ht="23.25" customHeight="1">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="23.25" customHeight="1">
       <c r="A61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="23.25" customHeight="1">
       <c r="A63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ComandoUteisGit.xlsx
+++ b/ComandoUteisGit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>Comando do Git</t>
   </si>
@@ -332,9 +332,6 @@
     <t>git reset HEAD nomeDoArquivo</t>
   </si>
   <si>
-    <t>remove um arquivo que foi colocado involuntariamente da stagearea</t>
-  </si>
-  <si>
     <t>git add nomeDoArquivo.formato | git add . (para adicionar todos os arquivos do repositório)</t>
   </si>
   <si>
@@ -411,6 +408,75 @@
   </si>
   <si>
     <t>Repositório remoto</t>
+  </si>
+  <si>
+    <t>git checkout nomeDoArquivo</t>
+  </si>
+  <si>
+    <t>descarta o que tem no Working Directory e retorna para o arquivo HEAD (commit atual)</t>
+  </si>
+  <si>
+    <t>git checkout master nomeDoArquivo</t>
+  </si>
+  <si>
+    <t>copia os dados da branch atual para a master</t>
+  </si>
+  <si>
+    <t>remove um arquivo que foi colocado involuntariamente na stagearea</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>alterações em nosso Working Directory e Index foram salvas em uma área distinta e que o nosso repositório foi restaurado de acordo com o HEAD. Dessa forma podemos arrumar bugs em versões anteriores e mais tarde retomar para a versão que está no stash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git stash Hash </t>
+  </si>
+  <si>
+    <t>retorna para a versão referente a Hash, excluindo as posteriores</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>lista nossos stashs</t>
+  </si>
+  <si>
+    <t>git stash pop ReferenciaDoStash</t>
+  </si>
+  <si>
+    <t>pega o que tem no stash e coloca na Working Directory. Se não colocarmos a referencia do stash, o git pegará a ultima versão enviada para lá</t>
+  </si>
+  <si>
+    <t>git reset Hash</t>
+  </si>
+  <si>
+    <t>retorna para versão referente a Hash, excluindo as posteriorees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git revert Hash </t>
+  </si>
+  <si>
+    <t>commits que foram realizados há algum tempo, a melhor maneira seria revertendo-os, isto é, apenas desfazendo as alterações daqueles commits. Todos os outros commits serão mantidos em seu respectivo estado</t>
+  </si>
+  <si>
+    <t>git alias serve para criarmos apelidos para as configs diminuindo os códigos que precisamos escrever</t>
+  </si>
+  <si>
+    <t>vim ~/.config</t>
+  </si>
+  <si>
+    <t>git cherry-pick Hash</t>
+  </si>
+  <si>
+    <t>Adicona um commit especifico para a branch</t>
+  </si>
+  <si>
+    <t>git-cola</t>
+  </si>
+  <si>
+    <t>abre a interface grafica</t>
   </si>
 </sst>
 </file>
@@ -607,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,22 +717,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,6 +746,104 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -702,104 +872,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -814,12 +886,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C65"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Comando do Git" dataDxfId="3"/>
-    <tableColumn id="2" name="Ação" dataDxfId="2"/>
-    <tableColumn id="3" name="OBS" dataDxfId="1"/>
+    <tableColumn id="1" name="Comando do Git" dataDxfId="2"/>
+    <tableColumn id="2" name="Ação" dataDxfId="1"/>
+    <tableColumn id="3" name="OBS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1088,11 +1160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1104,13 +1176,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1199,7 +1271,7 @@
     </row>
     <row r="11" spans="1:3" ht="23.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -1219,16 +1291,16 @@
     </row>
     <row r="13" spans="1:3" ht="23.25" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="23.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
@@ -1311,28 +1383,28 @@
     </row>
     <row r="23" spans="1:3" ht="23.25" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" ht="23.25" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -1356,10 +1428,10 @@
     </row>
     <row r="28" spans="1:3" ht="23.25" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -1392,22 +1464,22 @@
     </row>
     <row r="32" spans="1:3" ht="23.25" customHeight="1">
       <c r="A32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>128</v>
+      <c r="A33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.25" customHeight="1">
@@ -1450,10 +1522,10 @@
     </row>
     <row r="38" spans="1:3" ht="23.25" customHeight="1">
       <c r="A38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C38" s="9"/>
     </row>
@@ -1497,197 +1569,295 @@
     </row>
     <row r="43" spans="1:3" ht="23.25" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="23.25" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" ht="23.25" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" ht="23.25" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" ht="23.25" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" ht="23.25" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" ht="23.25" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>76</v>
+        <v>118</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" ht="23.25" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="23.25" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" ht="23.25" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" ht="23.25" customHeight="1">
       <c r="A54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3" ht="23.25" customHeight="1"/>
-    <row r="56" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" ht="48" customHeight="1">
+      <c r="A57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" ht="56.25" customHeight="1">
+      <c r="A60" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A66" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="B66" s="19"/>
+    </row>
+    <row r="67" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A67" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A60" s="2" t="s">
+    <row r="70" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B68"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
